--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Epha4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H2">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N2">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q2">
-        <v>0.405475320411</v>
+        <v>2.771418046939556</v>
       </c>
       <c r="R2">
-        <v>3.649277883699</v>
+        <v>24.942762422456</v>
       </c>
       <c r="S2">
-        <v>0.01741281744049174</v>
+        <v>0.0784814750246306</v>
       </c>
       <c r="T2">
-        <v>0.01741281744049174</v>
+        <v>0.0784814750246306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H3">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.325559</v>
       </c>
       <c r="O3">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P3">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q3">
-        <v>0.6258726148523333</v>
+        <v>2.377151176706222</v>
       </c>
       <c r="R3">
-        <v>5.632853533671</v>
+        <v>21.394360590356</v>
       </c>
       <c r="S3">
-        <v>0.02687760520758744</v>
+        <v>0.06731656052772667</v>
       </c>
       <c r="T3">
-        <v>0.02687760520758744</v>
+        <v>0.06731656052772667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H4">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N4">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q4">
-        <v>0.09055900329466667</v>
+        <v>0.5512034647893332</v>
       </c>
       <c r="R4">
-        <v>0.815031029652</v>
+        <v>4.960831183103999</v>
       </c>
       <c r="S4">
-        <v>0.003888984884122042</v>
+        <v>0.01560907096030662</v>
       </c>
       <c r="T4">
-        <v>0.003888984884122042</v>
+        <v>0.01560907096030662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H5">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I5">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J5">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N5">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q5">
-        <v>0.002973931356666667</v>
+        <v>0.007859376665777778</v>
       </c>
       <c r="R5">
-        <v>0.02676538221</v>
+        <v>0.070734389992</v>
       </c>
       <c r="S5">
-        <v>0.0001277131336666816</v>
+        <v>0.0002225631294367681</v>
       </c>
       <c r="T5">
-        <v>0.0001277131336666816</v>
+        <v>0.0002225631294367681</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>3.174364</v>
       </c>
       <c r="I6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N6">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O6">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P6">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q6">
-        <v>6.015480092916</v>
+        <v>10.82522810484178</v>
       </c>
       <c r="R6">
-        <v>54.139320836244</v>
+        <v>97.427052943576</v>
       </c>
       <c r="S6">
-        <v>0.2583300423036474</v>
+        <v>0.3065506014454407</v>
       </c>
       <c r="T6">
-        <v>0.2583300423036474</v>
+        <v>0.3065506014454407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.174364</v>
       </c>
       <c r="I7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>26.325559</v>
       </c>
       <c r="O7">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P7">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q7">
-        <v>9.285211863275109</v>
+        <v>9.28521186327511</v>
       </c>
       <c r="R7">
-        <v>83.56690676947599</v>
+        <v>83.56690676947601</v>
       </c>
       <c r="S7">
-        <v>0.39874609114955</v>
+        <v>0.2629401665875501</v>
       </c>
       <c r="T7">
-        <v>0.3987460911495501</v>
+        <v>0.2629401665875501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.174364</v>
       </c>
       <c r="I8">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J8">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N8">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O8">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P8">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q8">
-        <v>1.343499478590222</v>
+        <v>2.153014499242667</v>
       </c>
       <c r="R8">
-        <v>12.091495307312</v>
+        <v>19.377130493184</v>
       </c>
       <c r="S8">
-        <v>0.05769552417733962</v>
+        <v>0.06096942099246789</v>
       </c>
       <c r="T8">
-        <v>0.05769552417733962</v>
+        <v>0.06096942099246789</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>3.174364</v>
       </c>
       <c r="I9">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J9">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N9">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O9">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P9">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q9">
-        <v>0.04412013252888888</v>
+        <v>0.03069892153688889</v>
       </c>
       <c r="R9">
-        <v>0.39708119276</v>
+        <v>0.276290293832</v>
       </c>
       <c r="S9">
-        <v>0.00189470425079662</v>
+        <v>0.0008693371418797675</v>
       </c>
       <c r="T9">
-        <v>0.001894704250796621</v>
+        <v>0.0008693371418797673</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,40 +1039,40 @@
         <v>1.041014</v>
       </c>
       <c r="I10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N10">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O10">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P10">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q10">
-        <v>1.972741309266</v>
+        <v>3.550069875519556</v>
       </c>
       <c r="R10">
-        <v>17.754671783394</v>
+        <v>31.950628879676</v>
       </c>
       <c r="S10">
-        <v>0.08471781769787246</v>
+        <v>0.1005314664018128</v>
       </c>
       <c r="T10">
-        <v>0.08471781769787246</v>
+        <v>0.1005314664018128</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>1.041014</v>
       </c>
       <c r="I11">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J11">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,10 +1119,10 @@
         <v>26.325559</v>
       </c>
       <c r="O11">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P11">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q11">
         <v>3.045030608536222</v>
@@ -1131,10 +1131,10 @@
         <v>27.405275476826</v>
       </c>
       <c r="S11">
-        <v>0.1307664348927715</v>
+        <v>0.08622968083684537</v>
       </c>
       <c r="T11">
-        <v>0.1307664348927715</v>
+        <v>0.08622968083684539</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>1.041014</v>
       </c>
       <c r="I12">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J12">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N12">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O12">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P12">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q12">
-        <v>0.4405927506124445</v>
+        <v>0.7060684395093333</v>
       </c>
       <c r="R12">
-        <v>3.965334755512</v>
+        <v>6.354615955584</v>
       </c>
       <c r="S12">
-        <v>0.01892090774906376</v>
+        <v>0.01999456295026435</v>
       </c>
       <c r="T12">
-        <v>0.01892090774906376</v>
+        <v>0.01999456295026436</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,40 +1225,40 @@
         <v>1.041014</v>
       </c>
       <c r="I13">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J13">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N13">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O13">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P13">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q13">
-        <v>0.01446893791777778</v>
+        <v>0.01006753072577778</v>
       </c>
       <c r="R13">
-        <v>0.13022044126</v>
+        <v>0.09060777653200001</v>
       </c>
       <c r="S13">
-        <v>0.0006213571130906201</v>
+        <v>0.0002850940016383831</v>
       </c>
       <c r="T13">
-        <v>0.0006213571130906202</v>
+        <v>0.0002850940016383831</v>
       </c>
     </row>
   </sheetData>
